--- a/keras_model_mfcc/summary_results/nn_tests.xlsx
+++ b/keras_model_mfcc/summary_results/nn_tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lievgarcia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lievgarcia/Documents/QMUL/Data Analytics/sound_classifier/keras_model_mfcc/summary_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED0CBCB-EB82-594E-B30A-0334A60938D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E69B60B-0682-9F48-BFF0-55BEEC7457F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="3280" windowWidth="24900" windowHeight="15540" xr2:uid="{530CD362-D5F3-8A4E-936D-5EB0A212922A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{530CD362-D5F3-8A4E-936D-5EB0A212922A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,10 +259,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,13 +277,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -601,7 +601,7 @@
   <dimension ref="B2:R8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -617,55 +617,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="17">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="2:18" ht="17">
-      <c r="B3" s="12"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="17" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14"/>
     </row>
     <row r="4" spans="2:18" ht="17">
-      <c r="B4" s="12"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
         <v>0</v>
@@ -712,7 +712,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="17">
-      <c r="B5" s="12"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3"/>
       <c r="D5" s="10">
         <v>0.1</v>
@@ -759,7 +759,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="17">
-      <c r="B6" s="12"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3"/>
       <c r="D6" s="10">
         <v>0.01</v>
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="17">
-      <c r="B7" s="12"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="3"/>
       <c r="D7" s="10">
         <v>1E-3</v>
@@ -853,7 +853,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="17">
-      <c r="B8" s="12"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="3"/>
       <c r="D8" s="10">
         <v>1E-4</v>
